--- a/medicine/Pharmacie/Classe_ATC_A/Classe_ATC_A.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_A/Classe_ATC_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La classe ATC A, dénommée « Tractus digestif et métabolisme », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La classe ATC A, dénommée « Tractus digestif et métabolisme », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 Liste des sous-groupe de la classe ATC A (Tractus digestif et métabolisme) :
 A01 : Préparations stomatologiques
 A02 : Médicaments liés à des problèmes d'acidité
